--- a/speed.xlsx
+++ b/speed.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="PWM_Speed" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -111,8 +112,2518 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" dirty="0" err="1" smtClean="0"/>
+              <a:t>PWM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" dirty="0" smtClean="0"/>
+              <a:t> vs Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" dirty="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0676171333826439"/>
+          <c:y val="0.13518191430448"/>
+          <c:w val="0.898958475089628"/>
+          <c:h val="0.782246927615127"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-255.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-245.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-235.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-215.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-205.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-175.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-165.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-155.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-55.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>4.936363636363636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.864285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.03921568627451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.893048128342246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.37984496124031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.865853658536585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.532994923857868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.126865671641791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.579457364341085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0065</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0045</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0085</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0144927536231884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0165</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0175</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0215</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0335</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.205</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-255.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-245.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-235.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-215.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-205.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-175.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-165.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-155.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-55.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>7.558139534883721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.925531914893617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.190476190476191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.710526315789473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.327868852459017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.007692307692307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.617021276595745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.892215568862275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.532608695652174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.051643192488263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.589641434262948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.326530612244898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0045</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0095</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0305</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1325</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.961476725521669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.69971671388102</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.238805970149254</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.719457013574661</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.592814371257485</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.323741007194244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-255.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-245.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-235.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-215.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-205.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-175.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-165.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-155.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-55.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>6.565656565656566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.03875968992248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.421768707482993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.140127388535032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.823529411764706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.037383177570093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.296819787985866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.808457711442786</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0165</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.047</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.068</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.086</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1845</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.013513513513514</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.209677419354839</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.901960784313725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-255.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-245.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-235.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-215.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-205.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-175.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-165.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-155.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-145.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-115.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-95.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-55.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>6.934782608695652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5390625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.700636942675159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.371549893842887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.636986301369863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0115</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0345</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2118774976"/>
+        <c:axId val="-2040133504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2118774976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255.0"/>
+          <c:min val="-255.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" dirty="0" smtClean="0"/>
+                  <a:t>Directional </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" dirty="0" err="1" smtClean="0"/>
+                  <a:t>PWM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" dirty="0" smtClean="0"/>
+                  <a:t> output</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" dirty="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2040133504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30.0"/>
+        <c:minorUnit val="10.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2040133504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" dirty="0" smtClean="0"/>
+                  <a:t>Stroke</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0" dirty="0" smtClean="0"/>
+                  <a:t> Lengths Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" dirty="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0117073175228468"/>
+              <c:y val="0.405315103436481"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118774976"/>
+        <c:crossesAt val="-300.0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6291204"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42091.029145486114" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="209">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42091.179663310184" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="209">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -196,128 +2707,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="233" maxValue="1000"/>
     </cacheField>
     <cacheField name="Speed" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-7.558139534883721" maxValue="4.3237410071942444" count="120">
-        <n v="-4.9363636363636365"/>
-        <n v="-3.875"/>
-        <n v="-3.8642857142857143"/>
-        <n v="-3.0392156862745097"/>
-        <n v="-2.893048128342246"/>
-        <n v="-2.3798449612403099"/>
-        <n v="-1.8658536585365855"/>
-        <n v="-1.532994923857868"/>
-        <n v="-1.1268656716417911"/>
-        <n v="-0.5794573643410853"/>
-        <n v="-8.3500000000000005E-2"/>
-        <n v="-3.3500000000000002E-2"/>
-        <n v="-2.9499999999999998E-2"/>
-        <n v="-2.5499999999999998E-2"/>
-        <n v="-2.3E-2"/>
-        <n v="-0.02"/>
-        <n v="-1.6E-2"/>
-        <n v="-1.2999999999999999E-2"/>
-        <n v="-7.4999999999999997E-3"/>
-        <n v="-6.4999999999999997E-3"/>
-        <n v="-4.4999999999999997E-3"/>
-        <n v="-3.0000000000000001E-3"/>
-        <n v="-1.5E-3"/>
-        <n v="-5.0000000000000001E-4"/>
-        <n v="0"/>
-        <n v="5.0000000000000001E-4"/>
-        <n v="1E-3"/>
-        <n v="3.0000000000000001E-3"/>
-        <n v="8.5000000000000006E-3"/>
-        <n v="1.2999999999999999E-2"/>
-        <n v="1.4492753623188406E-2"/>
-        <n v="1.6500000000000001E-2"/>
-        <n v="1.7500000000000002E-2"/>
-        <n v="1.9E-2"/>
-        <n v="2.1499999999999998E-2"/>
-        <n v="3.3500000000000002E-2"/>
-        <n v="0.20499999999999999"/>
-        <n v="0.21"/>
-        <n v="-7.558139534883721"/>
-        <n v="-6.9255319148936172"/>
-        <n v="-6.5"/>
-        <n v="-6.1904761904761907"/>
-        <n v="-5.918181818181818"/>
-        <n v="-5.7105263157894735"/>
-        <n v="-5.3278688524590168"/>
-        <n v="-5.0076923076923077"/>
-        <n v="-4.6170212765957448"/>
-        <n v="-4.333333333333333"/>
-        <n v="-3.8922155688622753"/>
-        <n v="-3.5326086956521738"/>
-        <n v="-3.051643192488263"/>
-        <n v="-2.5896414342629481"/>
-        <n v="-2"/>
-        <n v="-1.3265306122448979"/>
-        <n v="-0.11"/>
-        <n v="-9.2499999999999999E-2"/>
-        <n v="-7.0499999999999993E-2"/>
-        <n v="-1.2500000000000001E-2"/>
-        <n v="-2.5000000000000001E-3"/>
-        <n v="1.5E-3"/>
-        <n v="2.5000000000000001E-3"/>
-        <n v="4.4999999999999997E-3"/>
-        <n v="7.0000000000000001E-3"/>
-        <n v="9.4999999999999998E-3"/>
-        <n v="1.2E-2"/>
-        <n v="3.0499999999999999E-2"/>
-        <n v="0.13250000000000001"/>
-        <n v="0.9614767255216693"/>
-        <n v="1.6997167138810199"/>
-        <n v="2.2388059701492535"/>
-        <n v="2.7194570135746607"/>
-        <n v="3.5928143712574849"/>
-        <n v="4.3237410071942444"/>
-        <n v="-6.5656565656565657"/>
-        <n v="-5.4249999999999998"/>
-        <n v="-5.0387596899224807"/>
-        <n v="-4.6428571428571432"/>
-        <n v="-4.4217687074829932"/>
-        <n v="-4.1401273885350323"/>
-        <n v="-3.8235294117647061"/>
-        <n v="-3.4210526315789473"/>
-        <n v="-3.0373831775700935"/>
-        <n v="-2.2968197879858656"/>
-        <n v="-0.80845771144278611"/>
-        <n v="3.5000000000000001E-3"/>
-        <n v="6.0000000000000001E-3"/>
-        <n v="1.2500000000000001E-2"/>
-        <n v="4.7E-2"/>
-        <n v="5.0500000000000003E-2"/>
-        <n v="6.8000000000000005E-2"/>
-        <n v="8.5999999999999993E-2"/>
-        <n v="0.17599999999999999"/>
-        <n v="0.1845"/>
-        <n v="0.189"/>
-        <n v="0.19850000000000001"/>
-        <n v="2.0135135135135136"/>
-        <n v="3.2096774193548385"/>
-        <n v="3.9019607843137254"/>
-        <n v="-6.9347826086956523"/>
-        <n v="-2.5390625"/>
-        <n v="-0.70063694267515919"/>
-        <n v="-1.3715498938428874"/>
-        <n v="-1.6369863013698631"/>
-        <n v="2.6499999999999999E-2"/>
-        <n v="-0.14099999999999999"/>
-        <n v="-6.3E-2"/>
-        <n v="-4.9000000000000002E-2"/>
-        <n v="-4.2500000000000003E-2"/>
-        <n v="-1.15E-2"/>
-        <n v="-5.4999999999999997E-3"/>
-        <n v="-3.5000000000000001E-3"/>
-        <n v="-2E-3"/>
-        <n v="-1E-3"/>
-        <n v="2E-3"/>
-        <n v="4.0000000000000001E-3"/>
-        <n v="1.4E-2"/>
-        <n v="3.4500000000000003E-2"/>
-        <n v="9.9500000000000005E-2"/>
-        <n v="0.11749999999999999"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="7.558139534883721"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -337,7 +2727,7 @@
     <n v="110"/>
     <n v="-543"/>
     <n v="892"/>
-    <x v="0"/>
+    <n v="4.9363636363636365"/>
   </r>
   <r>
     <x v="0"/>
@@ -346,7 +2736,7 @@
     <n v="80"/>
     <n v="-310"/>
     <n v="660"/>
-    <x v="1"/>
+    <n v="3.875"/>
   </r>
   <r>
     <x v="0"/>
@@ -355,7 +2745,7 @@
     <n v="140"/>
     <n v="-541"/>
     <n v="891"/>
-    <x v="2"/>
+    <n v="3.8642857142857143"/>
   </r>
   <r>
     <x v="0"/>
@@ -364,7 +2754,7 @@
     <n v="102"/>
     <n v="-310"/>
     <n v="660"/>
-    <x v="3"/>
+    <n v="3.0392156862745097"/>
   </r>
   <r>
     <x v="0"/>
@@ -373,7 +2763,7 @@
     <n v="187"/>
     <n v="-541"/>
     <n v="891"/>
-    <x v="4"/>
+    <n v="2.893048128342246"/>
   </r>
   <r>
     <x v="0"/>
@@ -382,7 +2772,7 @@
     <n v="129"/>
     <n v="-307"/>
     <n v="657"/>
-    <x v="5"/>
+    <n v="2.3798449612403099"/>
   </r>
   <r>
     <x v="0"/>
@@ -391,7 +2781,7 @@
     <n v="164"/>
     <n v="-306"/>
     <n v="656"/>
-    <x v="6"/>
+    <n v="1.8658536585365855"/>
   </r>
   <r>
     <x v="0"/>
@@ -400,7 +2790,7 @@
     <n v="197"/>
     <n v="-302"/>
     <n v="652"/>
-    <x v="7"/>
+    <n v="1.532994923857868"/>
   </r>
   <r>
     <x v="0"/>
@@ -409,7 +2799,7 @@
     <n v="268"/>
     <n v="-302"/>
     <n v="652"/>
-    <x v="8"/>
+    <n v="1.1268656716417911"/>
   </r>
   <r>
     <x v="0"/>
@@ -418,7 +2808,7 @@
     <n v="516"/>
     <n v="-299"/>
     <n v="649"/>
-    <x v="9"/>
+    <n v="0.5794573643410853"/>
   </r>
   <r>
     <x v="0"/>
@@ -427,7 +2817,7 @@
     <n v="2000"/>
     <n v="-167"/>
     <n v="649"/>
-    <x v="10"/>
+    <n v="8.3500000000000005E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -436,7 +2826,7 @@
     <n v="2000"/>
     <n v="-67"/>
     <n v="647"/>
-    <x v="11"/>
+    <n v="3.3500000000000002E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -445,7 +2835,7 @@
     <n v="2000"/>
     <n v="-59"/>
     <n v="644"/>
-    <x v="12"/>
+    <n v="2.9499999999999998E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -454,7 +2844,7 @@
     <n v="2000"/>
     <n v="-51"/>
     <n v="640"/>
-    <x v="13"/>
+    <n v="2.5499999999999998E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -463,7 +2853,7 @@
     <n v="2000"/>
     <n v="-46"/>
     <n v="639"/>
-    <x v="14"/>
+    <n v="2.3E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -472,7 +2862,7 @@
     <n v="2000"/>
     <n v="-40"/>
     <n v="640"/>
-    <x v="15"/>
+    <n v="0.02"/>
   </r>
   <r>
     <x v="0"/>
@@ -481,7 +2871,7 @@
     <n v="2000"/>
     <n v="-32"/>
     <n v="640"/>
-    <x v="16"/>
+    <n v="1.6E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -490,7 +2880,7 @@
     <n v="2000"/>
     <n v="-26"/>
     <n v="640"/>
-    <x v="17"/>
+    <n v="1.2999999999999999E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -499,7 +2889,7 @@
     <n v="2000"/>
     <n v="-15"/>
     <n v="639"/>
-    <x v="18"/>
+    <n v="7.4999999999999997E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -508,7 +2898,7 @@
     <n v="2000"/>
     <n v="-13"/>
     <n v="640"/>
-    <x v="19"/>
+    <n v="6.4999999999999997E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -517,7 +2907,7 @@
     <n v="2000"/>
     <n v="-9"/>
     <n v="641"/>
-    <x v="20"/>
+    <n v="4.4999999999999997E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -526,7 +2916,7 @@
     <n v="2000"/>
     <n v="-6"/>
     <n v="642"/>
-    <x v="21"/>
+    <n v="3.0000000000000001E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -535,7 +2925,7 @@
     <n v="2000"/>
     <n v="-3"/>
     <n v="643"/>
-    <x v="22"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -544,7 +2934,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="644"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -553,7 +2943,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="646"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -562,7 +2952,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="647"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -571,7 +2961,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -580,7 +2970,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -589,7 +2979,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -598,7 +2988,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="233"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -607,7 +2997,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -616,7 +3006,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -625,7 +3015,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -634,7 +3024,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -643,7 +3033,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="234"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -652,7 +3042,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="234"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -661,7 +3051,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="234"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -670,7 +3060,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="234"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -679,7 +3069,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="234"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -688,7 +3078,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="234"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="0"/>
@@ -697,7 +3087,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="234"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -706,7 +3096,7 @@
     <n v="2000"/>
     <n v="6"/>
     <n v="234"/>
-    <x v="27"/>
+    <n v="3.0000000000000001E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -715,7 +3105,7 @@
     <n v="2000"/>
     <n v="17"/>
     <n v="234"/>
-    <x v="28"/>
+    <n v="8.5000000000000006E-3"/>
   </r>
   <r>
     <x v="0"/>
@@ -724,7 +3114,7 @@
     <n v="2000"/>
     <n v="26"/>
     <n v="234"/>
-    <x v="29"/>
+    <n v="1.2999999999999999E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -733,7 +3123,7 @@
     <n v="2001"/>
     <n v="29"/>
     <n v="234"/>
-    <x v="30"/>
+    <n v="1.4492753623188406E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -742,7 +3132,7 @@
     <n v="2000"/>
     <n v="33"/>
     <n v="234"/>
-    <x v="31"/>
+    <n v="1.6500000000000001E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -751,7 +3141,7 @@
     <n v="2000"/>
     <n v="35"/>
     <n v="234"/>
-    <x v="32"/>
+    <n v="1.7500000000000002E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -760,7 +3150,7 @@
     <n v="2000"/>
     <n v="38"/>
     <n v="234"/>
-    <x v="33"/>
+    <n v="1.9E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -769,7 +3159,7 @@
     <n v="2000"/>
     <n v="43"/>
     <n v="233"/>
-    <x v="34"/>
+    <n v="2.1499999999999998E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -778,7 +3168,7 @@
     <n v="2000"/>
     <n v="67"/>
     <n v="234"/>
-    <x v="35"/>
+    <n v="3.3500000000000002E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -787,7 +3177,7 @@
     <n v="2000"/>
     <n v="410"/>
     <n v="234"/>
-    <x v="36"/>
+    <n v="0.20499999999999999"/>
   </r>
   <r>
     <x v="0"/>
@@ -796,7 +3186,7 @@
     <n v="2000"/>
     <n v="420"/>
     <n v="233"/>
-    <x v="37"/>
+    <n v="0.21"/>
   </r>
   <r>
     <x v="1"/>
@@ -805,7 +3195,7 @@
     <n v="86"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="38"/>
+    <n v="7.558139534883721"/>
   </r>
   <r>
     <x v="1"/>
@@ -814,7 +3204,7 @@
     <n v="94"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="39"/>
+    <n v="6.9255319148936172"/>
   </r>
   <r>
     <x v="1"/>
@@ -823,7 +3213,7 @@
     <n v="100"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="40"/>
+    <n v="6.5"/>
   </r>
   <r>
     <x v="1"/>
@@ -832,7 +3222,7 @@
     <n v="105"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="41"/>
+    <n v="6.1904761904761907"/>
   </r>
   <r>
     <x v="1"/>
@@ -841,7 +3231,7 @@
     <n v="110"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="42"/>
+    <n v="5.918181818181818"/>
   </r>
   <r>
     <x v="1"/>
@@ -850,7 +3240,7 @@
     <n v="114"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="43"/>
+    <n v="5.7105263157894735"/>
   </r>
   <r>
     <x v="1"/>
@@ -859,7 +3249,7 @@
     <n v="122"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="44"/>
+    <n v="5.3278688524590168"/>
   </r>
   <r>
     <x v="1"/>
@@ -868,7 +3258,7 @@
     <n v="130"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="45"/>
+    <n v="5.0076923076923077"/>
   </r>
   <r>
     <x v="1"/>
@@ -877,7 +3267,7 @@
     <n v="141"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="46"/>
+    <n v="4.6170212765957448"/>
   </r>
   <r>
     <x v="1"/>
@@ -886,7 +3276,7 @@
     <n v="150"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="47"/>
+    <n v="4.333333333333333"/>
   </r>
   <r>
     <x v="1"/>
@@ -895,7 +3285,7 @@
     <n v="167"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="48"/>
+    <n v="3.8922155688622753"/>
   </r>
   <r>
     <x v="1"/>
@@ -904,7 +3294,7 @@
     <n v="184"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="49"/>
+    <n v="3.5326086956521738"/>
   </r>
   <r>
     <x v="1"/>
@@ -913,7 +3303,7 @@
     <n v="213"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="50"/>
+    <n v="3.051643192488263"/>
   </r>
   <r>
     <x v="1"/>
@@ -922,7 +3312,7 @@
     <n v="251"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="51"/>
+    <n v="2.5896414342629481"/>
   </r>
   <r>
     <x v="1"/>
@@ -931,7 +3321,7 @@
     <n v="325"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="52"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -940,7 +3330,7 @@
     <n v="490"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="53"/>
+    <n v="1.3265306122448979"/>
   </r>
   <r>
     <x v="1"/>
@@ -949,7 +3339,7 @@
     <n v="2000"/>
     <n v="-220"/>
     <n v="1000"/>
-    <x v="54"/>
+    <n v="0.11"/>
   </r>
   <r>
     <x v="1"/>
@@ -958,7 +3348,7 @@
     <n v="2000"/>
     <n v="-185"/>
     <n v="1000"/>
-    <x v="55"/>
+    <n v="9.2499999999999999E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -967,7 +3357,7 @@
     <n v="2000"/>
     <n v="-141"/>
     <n v="1000"/>
-    <x v="56"/>
+    <n v="7.0499999999999993E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -976,7 +3366,7 @@
     <n v="2000"/>
     <n v="-25"/>
     <n v="1000"/>
-    <x v="57"/>
+    <n v="1.2500000000000001E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -985,7 +3375,7 @@
     <n v="2000"/>
     <n v="-5"/>
     <n v="1000"/>
-    <x v="58"/>
+    <n v="2.5000000000000001E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -994,7 +3384,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1003,7 +3393,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1012,7 +3402,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1021,7 +3411,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1030,7 +3420,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1039,7 +3429,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1048,7 +3438,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="251"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1057,7 +3447,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1066,7 +3456,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1075,7 +3465,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1084,7 +3474,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="251"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1093,7 +3483,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="1"/>
@@ -1102,7 +3492,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="252"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="1"/>
@@ -1111,7 +3501,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="252"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="1"/>
@@ -1120,7 +3510,7 @@
     <n v="2000"/>
     <n v="3"/>
     <n v="251"/>
-    <x v="59"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1129,7 +3519,7 @@
     <n v="2000"/>
     <n v="3"/>
     <n v="251"/>
-    <x v="59"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1138,7 +3528,7 @@
     <n v="2000"/>
     <n v="3"/>
     <n v="252"/>
-    <x v="59"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1147,7 +3537,7 @@
     <n v="2000"/>
     <n v="5"/>
     <n v="251"/>
-    <x v="60"/>
+    <n v="2.5000000000000001E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1156,7 +3546,7 @@
     <n v="2000"/>
     <n v="5"/>
     <n v="251"/>
-    <x v="60"/>
+    <n v="2.5000000000000001E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1165,7 +3555,7 @@
     <n v="2000"/>
     <n v="9"/>
     <n v="251"/>
-    <x v="61"/>
+    <n v="4.4999999999999997E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1174,7 +3564,7 @@
     <n v="2000"/>
     <n v="14"/>
     <n v="251"/>
-    <x v="62"/>
+    <n v="7.0000000000000001E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1183,7 +3573,7 @@
     <n v="2000"/>
     <n v="19"/>
     <n v="252"/>
-    <x v="63"/>
+    <n v="9.4999999999999998E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -1192,7 +3582,7 @@
     <n v="2000"/>
     <n v="24"/>
     <n v="251"/>
-    <x v="64"/>
+    <n v="1.2E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -1201,7 +3591,7 @@
     <n v="2000"/>
     <n v="61"/>
     <n v="253"/>
-    <x v="65"/>
+    <n v="3.0499999999999999E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -1210,7 +3600,7 @@
     <n v="2000"/>
     <n v="265"/>
     <n v="254"/>
-    <x v="66"/>
+    <n v="0.13250000000000001"/>
   </r>
   <r>
     <x v="1"/>
@@ -1219,7 +3609,7 @@
     <n v="623"/>
     <n v="599"/>
     <n v="251"/>
-    <x v="67"/>
+    <n v="0.9614767255216693"/>
   </r>
   <r>
     <x v="1"/>
@@ -1228,7 +3618,7 @@
     <n v="353"/>
     <n v="600"/>
     <n v="250"/>
-    <x v="68"/>
+    <n v="1.6997167138810199"/>
   </r>
   <r>
     <x v="1"/>
@@ -1237,7 +3627,7 @@
     <n v="268"/>
     <n v="600"/>
     <n v="250"/>
-    <x v="69"/>
+    <n v="2.2388059701492535"/>
   </r>
   <r>
     <x v="1"/>
@@ -1246,7 +3636,7 @@
     <n v="221"/>
     <n v="601"/>
     <n v="249"/>
-    <x v="70"/>
+    <n v="2.7194570135746607"/>
   </r>
   <r>
     <x v="1"/>
@@ -1255,7 +3645,7 @@
     <n v="167"/>
     <n v="600"/>
     <n v="250"/>
-    <x v="71"/>
+    <n v="3.5928143712574849"/>
   </r>
   <r>
     <x v="1"/>
@@ -1264,7 +3654,7 @@
     <n v="139"/>
     <n v="601"/>
     <n v="250"/>
-    <x v="72"/>
+    <n v="4.3237410071942444"/>
   </r>
   <r>
     <x v="2"/>
@@ -1273,7 +3663,7 @@
     <n v="99"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="73"/>
+    <n v="6.5656565656565657"/>
   </r>
   <r>
     <x v="2"/>
@@ -1282,7 +3672,7 @@
     <n v="110"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="42"/>
+    <n v="5.918181818181818"/>
   </r>
   <r>
     <x v="2"/>
@@ -1291,7 +3681,7 @@
     <n v="120"/>
     <n v="-651"/>
     <n v="1000"/>
-    <x v="74"/>
+    <n v="5.4249999999999998"/>
   </r>
   <r>
     <x v="2"/>
@@ -1300,7 +3690,7 @@
     <n v="129"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="75"/>
+    <n v="5.0387596899224807"/>
   </r>
   <r>
     <x v="2"/>
@@ -1309,7 +3699,7 @@
     <n v="140"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="76"/>
+    <n v="4.6428571428571432"/>
   </r>
   <r>
     <x v="2"/>
@@ -1318,7 +3708,7 @@
     <n v="147"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="77"/>
+    <n v="4.4217687074829932"/>
   </r>
   <r>
     <x v="2"/>
@@ -1327,7 +3717,7 @@
     <n v="157"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="78"/>
+    <n v="4.1401273885350323"/>
   </r>
   <r>
     <x v="2"/>
@@ -1336,7 +3726,7 @@
     <n v="170"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="79"/>
+    <n v="3.8235294117647061"/>
   </r>
   <r>
     <x v="2"/>
@@ -1345,7 +3735,7 @@
     <n v="190"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="80"/>
+    <n v="3.4210526315789473"/>
   </r>
   <r>
     <x v="2"/>
@@ -1354,7 +3744,7 @@
     <n v="214"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="81"/>
+    <n v="3.0373831775700935"/>
   </r>
   <r>
     <x v="2"/>
@@ -1363,7 +3753,7 @@
     <n v="283"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="82"/>
+    <n v="2.2968197879858656"/>
   </r>
   <r>
     <x v="2"/>
@@ -1372,7 +3762,7 @@
     <n v="804"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="83"/>
+    <n v="0.80845771144278611"/>
   </r>
   <r>
     <x v="2"/>
@@ -1381,7 +3771,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1390,7 +3780,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1399,7 +3789,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1408,7 +3798,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1417,7 +3807,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1426,7 +3816,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1435,7 +3825,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1444,7 +3834,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1453,7 +3843,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="999"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1462,7 +3852,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1471,7 +3861,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1480,7 +3870,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1489,7 +3879,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1498,7 +3888,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1507,7 +3897,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="256"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1516,7 +3906,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="255"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="2"/>
@@ -1525,7 +3915,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="255"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1534,7 +3924,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="255"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1543,7 +3933,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="255"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1552,7 +3942,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="255"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1561,7 +3951,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="255"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1570,7 +3960,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="255"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="2"/>
@@ -1579,7 +3969,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="255"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="2"/>
@@ -1588,7 +3978,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="255"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="2"/>
@@ -1597,7 +3987,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="255"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="2"/>
@@ -1606,7 +3996,7 @@
     <n v="2000"/>
     <n v="7"/>
     <n v="254"/>
-    <x v="84"/>
+    <n v="3.5000000000000001E-3"/>
   </r>
   <r>
     <x v="2"/>
@@ -1615,7 +4005,7 @@
     <n v="2000"/>
     <n v="12"/>
     <n v="254"/>
-    <x v="85"/>
+    <n v="6.0000000000000001E-3"/>
   </r>
   <r>
     <x v="2"/>
@@ -1624,7 +4014,7 @@
     <n v="2000"/>
     <n v="25"/>
     <n v="255"/>
-    <x v="86"/>
+    <n v="1.2500000000000001E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1633,7 +4023,7 @@
     <n v="2000"/>
     <n v="33"/>
     <n v="255"/>
-    <x v="31"/>
+    <n v="1.6500000000000001E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1642,7 +4032,7 @@
     <n v="2000"/>
     <n v="94"/>
     <n v="256"/>
-    <x v="87"/>
+    <n v="4.7E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1651,7 +4041,7 @@
     <n v="2000"/>
     <n v="101"/>
     <n v="254"/>
-    <x v="88"/>
+    <n v="5.0500000000000003E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1660,7 +4050,7 @@
     <n v="2000"/>
     <n v="136"/>
     <n v="255"/>
-    <x v="89"/>
+    <n v="6.8000000000000005E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1669,7 +4059,7 @@
     <n v="2000"/>
     <n v="172"/>
     <n v="254"/>
-    <x v="90"/>
+    <n v="8.5999999999999993E-2"/>
   </r>
   <r>
     <x v="2"/>
@@ -1678,7 +4068,7 @@
     <n v="2000"/>
     <n v="352"/>
     <n v="255"/>
-    <x v="91"/>
+    <n v="0.17599999999999999"/>
   </r>
   <r>
     <x v="2"/>
@@ -1687,7 +4077,7 @@
     <n v="2000"/>
     <n v="369"/>
     <n v="254"/>
-    <x v="92"/>
+    <n v="0.1845"/>
   </r>
   <r>
     <x v="2"/>
@@ -1696,7 +4086,7 @@
     <n v="2000"/>
     <n v="378"/>
     <n v="254"/>
-    <x v="93"/>
+    <n v="0.189"/>
   </r>
   <r>
     <x v="2"/>
@@ -1705,7 +4095,7 @@
     <n v="2000"/>
     <n v="397"/>
     <n v="254"/>
-    <x v="94"/>
+    <n v="0.19850000000000001"/>
   </r>
   <r>
     <x v="2"/>
@@ -1714,7 +4104,7 @@
     <n v="296"/>
     <n v="596"/>
     <n v="254"/>
-    <x v="95"/>
+    <n v="2.0135135135135136"/>
   </r>
   <r>
     <x v="2"/>
@@ -1723,7 +4113,7 @@
     <n v="186"/>
     <n v="597"/>
     <n v="253"/>
-    <x v="96"/>
+    <n v="3.2096774193548385"/>
   </r>
   <r>
     <x v="2"/>
@@ -1732,7 +4122,7 @@
     <n v="153"/>
     <n v="597"/>
     <n v="253"/>
-    <x v="97"/>
+    <n v="3.9019607843137254"/>
   </r>
   <r>
     <x v="3"/>
@@ -1741,7 +4131,7 @@
     <n v="92"/>
     <n v="-638"/>
     <n v="988"/>
-    <x v="98"/>
+    <n v="6.9347826086956523"/>
   </r>
   <r>
     <x v="3"/>
@@ -1750,7 +4140,7 @@
     <n v="256"/>
     <n v="-650"/>
     <n v="1000"/>
-    <x v="99"/>
+    <n v="2.5390625"/>
   </r>
   <r>
     <x v="3"/>
@@ -1759,7 +4149,7 @@
     <n v="942"/>
     <n v="-660"/>
     <n v="1000"/>
-    <x v="100"/>
+    <n v="0.70063694267515919"/>
   </r>
   <r>
     <x v="3"/>
@@ -1768,7 +4158,7 @@
     <n v="471"/>
     <n v="-646"/>
     <n v="996"/>
-    <x v="101"/>
+    <n v="1.3715498938428874"/>
   </r>
   <r>
     <x v="3"/>
@@ -1777,7 +4167,7 @@
     <n v="292"/>
     <n v="-478"/>
     <n v="828"/>
-    <x v="102"/>
+    <n v="1.6369863013698631"/>
   </r>
   <r>
     <x v="3"/>
@@ -1786,7 +4176,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="1000"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -1795,7 +4185,7 @@
     <n v="2000"/>
     <n v="53"/>
     <n v="785"/>
-    <x v="103"/>
+    <n v="2.6499999999999999E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1804,7 +4194,7 @@
     <n v="2000"/>
     <n v="-282"/>
     <n v="770"/>
-    <x v="104"/>
+    <n v="0.14099999999999999"/>
   </r>
   <r>
     <x v="3"/>
@@ -1813,7 +4203,7 @@
     <n v="2000"/>
     <n v="-126"/>
     <n v="788"/>
-    <x v="105"/>
+    <n v="6.3E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1822,7 +4212,7 @@
     <n v="2000"/>
     <n v="-98"/>
     <n v="830"/>
-    <x v="106"/>
+    <n v="4.9000000000000002E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1831,7 +4221,7 @@
     <n v="2000"/>
     <n v="-85"/>
     <n v="843"/>
-    <x v="107"/>
+    <n v="4.2500000000000003E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1840,7 +4230,7 @@
     <n v="2000"/>
     <n v="-23"/>
     <n v="910"/>
-    <x v="108"/>
+    <n v="1.15E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1849,7 +4239,7 @@
     <n v="2000"/>
     <n v="-13"/>
     <n v="934"/>
-    <x v="19"/>
+    <n v="6.4999999999999997E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1858,7 +4248,7 @@
     <n v="2000"/>
     <n v="-11"/>
     <n v="941"/>
-    <x v="109"/>
+    <n v="5.4999999999999997E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1867,7 +4257,7 @@
     <n v="2000"/>
     <n v="-7"/>
     <n v="945"/>
-    <x v="110"/>
+    <n v="3.5000000000000001E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1876,7 +4266,7 @@
     <n v="2000"/>
     <n v="-6"/>
     <n v="952"/>
-    <x v="21"/>
+    <n v="3.0000000000000001E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1885,7 +4275,7 @@
     <n v="2000"/>
     <n v="-4"/>
     <n v="960"/>
-    <x v="111"/>
+    <n v="2E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1894,7 +4284,7 @@
     <n v="2000"/>
     <n v="-5"/>
     <n v="967"/>
-    <x v="58"/>
+    <n v="2.5000000000000001E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1903,7 +4293,7 @@
     <n v="2000"/>
     <n v="-2"/>
     <n v="970"/>
-    <x v="112"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1912,7 +4302,7 @@
     <n v="2000"/>
     <n v="-3"/>
     <n v="974"/>
-    <x v="22"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -1921,7 +4311,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="975"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -1930,7 +4320,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="978"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -1939,7 +4329,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="981"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -1948,7 +4338,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="984"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -1957,7 +4347,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="986"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -1966,7 +4356,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="988"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -1975,7 +4365,7 @@
     <n v="2000"/>
     <n v="-1"/>
     <n v="253"/>
-    <x v="23"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -1984,7 +4374,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -1993,7 +4383,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -2002,7 +4392,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -2011,7 +4401,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -2020,7 +4410,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -2029,7 +4419,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -2038,7 +4428,7 @@
     <n v="2000"/>
     <n v="0"/>
     <n v="252"/>
-    <x v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -2047,7 +4437,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -2056,7 +4446,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -2065,7 +4455,7 @@
     <n v="2000"/>
     <n v="1"/>
     <n v="251"/>
-    <x v="25"/>
+    <n v="5.0000000000000001E-4"/>
   </r>
   <r>
     <x v="3"/>
@@ -2074,7 +4464,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2083,7 +4473,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2092,7 +4482,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2101,7 +4491,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2110,7 +4500,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2119,7 +4509,7 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="251"/>
-    <x v="26"/>
+    <n v="1E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2128,7 +4518,7 @@
     <n v="2000"/>
     <n v="3"/>
     <n v="251"/>
-    <x v="59"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2137,7 +4527,7 @@
     <n v="2000"/>
     <n v="3"/>
     <n v="252"/>
-    <x v="59"/>
+    <n v="1.5E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2146,7 +4536,7 @@
     <n v="2000"/>
     <n v="4"/>
     <n v="251"/>
-    <x v="113"/>
+    <n v="2E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2155,7 +4545,7 @@
     <n v="2000"/>
     <n v="5"/>
     <n v="252"/>
-    <x v="60"/>
+    <n v="2.5000000000000001E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2164,7 +4554,7 @@
     <n v="2000"/>
     <n v="8"/>
     <n v="252"/>
-    <x v="114"/>
+    <n v="4.0000000000000001E-3"/>
   </r>
   <r>
     <x v="3"/>
@@ -2173,7 +4563,7 @@
     <n v="2000"/>
     <n v="28"/>
     <n v="252"/>
-    <x v="115"/>
+    <n v="1.4E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -2182,7 +4572,7 @@
     <n v="2000"/>
     <n v="69"/>
     <n v="252"/>
-    <x v="116"/>
+    <n v="3.4500000000000003E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -2191,7 +4581,7 @@
     <n v="2000"/>
     <n v="199"/>
     <n v="252"/>
-    <x v="117"/>
+    <n v="9.9500000000000005E-2"/>
   </r>
   <r>
     <x v="3"/>
@@ -2200,7 +4590,7 @@
     <n v="2000"/>
     <n v="235"/>
     <n v="252"/>
-    <x v="118"/>
+    <n v="0.11749999999999999"/>
   </r>
   <r>
     <x v="4"/>
@@ -2209,13 +4599,13 @@
     <m/>
     <m/>
     <m/>
-    <x v="119"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" sortType="ascending" minSubtotal="1">
@@ -2289,130 +4679,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="120">
-        <item x="38"/>
-        <item x="98"/>
-        <item x="39"/>
-        <item x="73"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="74"/>
-        <item x="44"/>
-        <item x="75"/>
-        <item x="45"/>
-        <item x="0"/>
-        <item x="76"/>
-        <item x="46"/>
-        <item x="77"/>
-        <item x="47"/>
-        <item x="78"/>
-        <item x="48"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="79"/>
-        <item x="49"/>
-        <item x="80"/>
-        <item x="50"/>
-        <item x="3"/>
-        <item x="81"/>
-        <item x="4"/>
-        <item x="51"/>
-        <item x="99"/>
-        <item x="5"/>
-        <item x="82"/>
-        <item x="52"/>
-        <item x="6"/>
-        <item x="102"/>
-        <item x="7"/>
-        <item x="101"/>
-        <item x="53"/>
-        <item x="8"/>
-        <item x="83"/>
-        <item x="100"/>
-        <item x="9"/>
-        <item x="104"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="10"/>
-        <item x="56"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="109"/>
-        <item x="20"/>
-        <item x="110"/>
-        <item x="21"/>
-        <item x="58"/>
-        <item x="111"/>
-        <item x="22"/>
-        <item x="112"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="59"/>
-        <item x="113"/>
-        <item x="60"/>
-        <item x="27"/>
-        <item x="84"/>
-        <item x="114"/>
-        <item x="61"/>
-        <item x="85"/>
-        <item x="62"/>
-        <item x="28"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="86"/>
-        <item x="29"/>
-        <item x="115"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="103"/>
-        <item x="65"/>
-        <item x="35"/>
-        <item x="116"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="66"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="95"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="96"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="72"/>
-        <item x="119"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -2875,17 +5142,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
-      <pivotSelection pane="bottomRight" activeRow="2" activeCol="2" click="1" r:id="rId1">
-        <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" customWidth="1"/>
@@ -2976,19 +5240,19 @@
         <v>-255</v>
       </c>
       <c r="B5" s="1">
-        <v>-4.9363636363636365</v>
+        <v>4.9363636363636365</v>
       </c>
       <c r="C5" s="1">
-        <v>-7.558139534883721</v>
+        <v>7.558139534883721</v>
       </c>
       <c r="D5" s="1">
-        <v>-6.5656565656565657</v>
+        <v>6.5656565656565657</v>
       </c>
       <c r="E5" s="1">
-        <v>-6.9347826086956523</v>
+        <v>6.9347826086956523</v>
       </c>
       <c r="F5" s="1">
-        <v>-6.4987355863998939</v>
+        <v>6.4987355863998939</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2996,19 +5260,19 @@
         <v>-245</v>
       </c>
       <c r="B6" s="1">
-        <v>-3.875</v>
+        <v>3.875</v>
       </c>
       <c r="C6" s="1">
-        <v>-6.9255319148936172</v>
+        <v>6.9255319148936172</v>
       </c>
       <c r="D6" s="1">
-        <v>-5.918181818181818</v>
+        <v>5.918181818181818</v>
       </c>
       <c r="E6" s="1">
-        <v>-2.5390625</v>
+        <v>2.5390625</v>
       </c>
       <c r="F6" s="1">
-        <v>-4.814444058268859</v>
+        <v>4.814444058268859</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3016,19 +5280,19 @@
         <v>-235</v>
       </c>
       <c r="B7" s="1">
-        <v>-3.8642857142857143</v>
+        <v>3.8642857142857143</v>
       </c>
       <c r="C7" s="1">
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.4249999999999998</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.70063694267515919</v>
+        <v>0.70063694267515919</v>
       </c>
       <c r="F7" s="1">
-        <v>-4.1224806642402188</v>
+        <v>4.1224806642402188</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3036,19 +5300,19 @@
         <v>-225</v>
       </c>
       <c r="B8" s="1">
-        <v>-3.0392156862745097</v>
+        <v>3.0392156862745097</v>
       </c>
       <c r="C8" s="1">
-        <v>-6.1904761904761907</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="D8" s="1">
-        <v>-5.0387596899224807</v>
+        <v>5.0387596899224807</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.3715498938428874</v>
+        <v>1.3715498938428874</v>
       </c>
       <c r="F8" s="1">
-        <v>-3.9100003651290169</v>
+        <v>3.9100003651290169</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3056,19 +5320,19 @@
         <v>-215</v>
       </c>
       <c r="B9" s="1">
-        <v>-2.893048128342246</v>
+        <v>2.893048128342246</v>
       </c>
       <c r="C9" s="1">
-        <v>-5.918181818181818</v>
+        <v>5.918181818181818</v>
       </c>
       <c r="D9" s="1">
-        <v>-4.6428571428571432</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.6369863013698631</v>
+        <v>1.6369863013698631</v>
       </c>
       <c r="F9" s="1">
-        <v>-3.7727683476877676</v>
+        <v>3.7727683476877676</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3076,19 +5340,19 @@
         <v>-205</v>
       </c>
       <c r="B10" s="1">
-        <v>-2.3798449612403099</v>
+        <v>2.3798449612403099</v>
       </c>
       <c r="C10" s="1">
-        <v>-5.7105263157894735</v>
+        <v>5.7105263157894735</v>
       </c>
       <c r="D10" s="1">
-        <v>-4.4217687074829932</v>
+        <v>4.4217687074829932</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>-3.1280349961281941</v>
+        <v>3.1280349961281941</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3096,19 +5360,19 @@
         <v>-195</v>
       </c>
       <c r="B11" s="1">
-        <v>-1.8658536585365855</v>
+        <v>1.8658536585365855</v>
       </c>
       <c r="C11" s="1">
-        <v>-5.3278688524590168</v>
+        <v>5.3278688524590168</v>
       </c>
       <c r="D11" s="1">
-        <v>-4.1401273885350323</v>
+        <v>4.1401273885350323</v>
       </c>
       <c r="E11" s="1">
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>-2.8268374748826584</v>
+        <v>2.8400874748826586</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3116,19 +5380,19 @@
         <v>-185</v>
       </c>
       <c r="B12" s="1">
-        <v>-1.532994923857868</v>
+        <v>1.532994923857868</v>
       </c>
       <c r="C12" s="1">
-        <v>-5.0076923076923077</v>
+        <v>5.0076923076923077</v>
       </c>
       <c r="D12" s="1">
-        <v>-3.8235294117647061</v>
+        <v>3.8235294117647061</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.14099999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>-2.6263041608287203</v>
+        <v>2.6263041608287203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3136,19 +5400,19 @@
         <v>-175</v>
       </c>
       <c r="B13" s="1">
-        <v>-1.1268656716417911</v>
+        <v>1.1268656716417911</v>
       </c>
       <c r="C13" s="1">
-        <v>-4.6170212765957448</v>
+        <v>4.6170212765957448</v>
       </c>
       <c r="D13" s="1">
-        <v>-3.4210526315789473</v>
+        <v>3.4210526315789473</v>
       </c>
       <c r="E13" s="1">
-        <v>-6.3E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>-2.306984894954121</v>
+        <v>2.306984894954121</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3156,19 +5420,19 @@
         <v>-165</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.5794573643410853</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C14" s="1">
-        <v>-4.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D14" s="1">
-        <v>-3.0373831775700935</v>
+        <v>3.0373831775700935</v>
       </c>
       <c r="E14" s="1">
-        <v>-4.9000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>-1.9997934688111279</v>
+        <v>1.9997934688111279</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3176,19 +5440,19 @@
         <v>-155</v>
       </c>
       <c r="B15" s="1">
-        <v>-8.3500000000000005E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>-3.8922155688622753</v>
+        <v>3.8922155688622753</v>
       </c>
       <c r="D15" s="1">
-        <v>-2.2968197879858656</v>
+        <v>2.2968197879858656</v>
       </c>
       <c r="E15" s="1">
-        <v>-4.2500000000000003E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>-1.5787588392120353</v>
+        <v>1.5787588392120353</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,19 +5460,19 @@
         <v>-145</v>
       </c>
       <c r="B16" s="1">
-        <v>-3.3500000000000002E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>-3.5326086956521738</v>
+        <v>3.5326086956521738</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.80845771144278611</v>
+        <v>0.80845771144278611</v>
       </c>
       <c r="E16" s="1">
-        <v>-1.15E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.09651660177374</v>
+        <v>1.09651660177374</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3216,19 +5480,19 @@
         <v>-135</v>
       </c>
       <c r="B17" s="1">
-        <v>-2.9499999999999998E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>-3.051643192488263</v>
+        <v>3.051643192488263</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>-6.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>-0.77191079812206576</v>
+        <v>0.77191079812206576</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,19 +5500,19 @@
         <v>-125</v>
       </c>
       <c r="B18" s="1">
-        <v>-2.5499999999999998E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>-2.5896414342629481</v>
+        <v>2.5896414342629481</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>-5.4999999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F18" s="1">
-        <v>-0.65516035856573707</v>
+        <v>0.65516035856573707</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3256,19 +5520,19 @@
         <v>-115</v>
       </c>
       <c r="B19" s="1">
-        <v>-2.3E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>-3.5000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>-0.50662499999999999</v>
+        <v>0.50662499999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3276,19 +5540,19 @@
         <v>-105</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.3265306122448979</v>
+        <v>1.3265306122448979</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>-3.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>-0.33738265306122445</v>
+        <v>0.33738265306122445</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3296,19 +5560,19 @@
         <v>-95</v>
       </c>
       <c r="B21" s="1">
-        <v>-1.6E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.11</v>
+        <v>0.11</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>-2E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F21" s="1">
-        <v>-3.2000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3316,19 +5580,19 @@
         <v>-85</v>
       </c>
       <c r="B22" s="1">
-        <v>-1.2999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>-9.2499999999999999E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>-2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F22" s="1">
-        <v>-2.7E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3336,19 +5600,19 @@
         <v>-75</v>
       </c>
       <c r="B23" s="1">
-        <v>-7.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>-7.0499999999999993E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>-1E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F23" s="1">
-        <v>-1.9749999999999997E-2</v>
+        <v>1.9749999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3356,19 +5620,19 @@
         <v>-65</v>
       </c>
       <c r="B24" s="1">
-        <v>-6.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>-1.2500000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>-1.5E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F24" s="1">
-        <v>-5.1250000000000002E-3</v>
+        <v>5.1250000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3376,10 +5640,10 @@
         <v>-55</v>
       </c>
       <c r="B25" s="1">
-        <v>-4.4999999999999997E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C25" s="1">
-        <v>-2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -3388,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>-1.7499999999999998E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3396,7 +5660,7 @@
         <v>-45</v>
       </c>
       <c r="B26" s="1">
-        <v>-3.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -3405,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F26" s="1">
-        <v>-8.7500000000000002E-4</v>
+        <v>8.7500000000000002E-4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3416,7 +5680,7 @@
         <v>-35</v>
       </c>
       <c r="B27" s="1">
-        <v>-1.5E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -3428,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>-3.7500000000000001E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3436,7 +5700,7 @@
         <v>-25</v>
       </c>
       <c r="B28" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -3445,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F28" s="1">
-        <v>-2.5000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3456,7 +5720,7 @@
         <v>-15</v>
       </c>
       <c r="B29" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -3465,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F29" s="1">
-        <v>-2.5000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3485,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F30" s="1">
-        <v>-1.25E-4</v>
+        <v>1.25E-4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3505,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F31" s="1">
-        <v>-1.25E-4</v>
+        <v>1.25E-4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4016,19 +6280,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="1">
-        <v>-0.4960564806011647</v>
+        <v>0.51782543266359471</v>
       </c>
       <c r="C57" s="1">
-        <v>-1.1351230624276436</v>
+        <v>1.7406235163345014</v>
       </c>
       <c r="D57" s="1">
-        <v>-0.7571815829960834</v>
+        <v>1.1481874182723177</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.25396188935737629</v>
+        <v>0.26596188935737625</v>
       </c>
       <c r="F57" s="1">
-        <v>-0.66058075384556725</v>
+        <v>0.91814956415694726</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +6305,7 @@
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="39" zoomScalePageLayoutView="39" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4090,8 +6354,8 @@
         <v>892</v>
       </c>
       <c r="G2">
-        <f>E2/D2</f>
-        <v>-4.9363636363636365</v>
+        <f>ABS(E2/D2)</f>
+        <v>4.9363636363636365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4115,8 +6379,8 @@
         <v>660</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">E3/D3</f>
-        <v>-3.875</v>
+        <f t="shared" ref="G3:G66" si="1">ABS(E3/D3)</f>
+        <v>3.875</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4141,7 +6405,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>-3.8642857142857143</v>
+        <v>3.8642857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4166,7 +6430,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-3.0392156862745097</v>
+        <v>3.0392156862745097</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4191,7 +6455,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-2.893048128342246</v>
+        <v>2.893048128342246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4216,7 +6480,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>-2.3798449612403099</v>
+        <v>2.3798449612403099</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4241,7 +6505,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-1.8658536585365855</v>
+        <v>1.8658536585365855</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4266,7 +6530,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>-1.532994923857868</v>
+        <v>1.532994923857868</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4291,7 +6555,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-1.1268656716417911</v>
+        <v>1.1268656716417911</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4316,7 +6580,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-0.5794573643410853</v>
+        <v>0.5794573643410853</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4341,7 +6605,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-8.3500000000000005E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4366,7 +6630,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-3.3500000000000002E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4391,7 +6655,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-2.9499999999999998E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4416,7 +6680,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-2.5499999999999998E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4441,7 +6705,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-2.3E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4466,7 +6730,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4491,7 +6755,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-1.6E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4516,7 +6780,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-1.2999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4541,7 +6805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-7.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4566,7 +6830,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-6.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4591,7 +6855,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-4.4999999999999997E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4616,7 +6880,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>-3.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,7 +6905,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-1.5E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,7 +6930,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4691,7 +6955,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5391,7 +7655,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>-7.558139534883721</v>
+        <v>7.558139534883721</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5416,7 +7680,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>-6.9255319148936172</v>
+        <v>6.9255319148936172</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,7 +7705,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5466,7 +7730,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>-6.1904761904761907</v>
+        <v>6.1904761904761907</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5491,7 +7755,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>-5.918181818181818</v>
+        <v>5.918181818181818</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5516,7 +7780,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>-5.7105263157894735</v>
+        <v>5.7105263157894735</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5541,7 +7805,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>-5.3278688524590168</v>
+        <v>5.3278688524590168</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5566,7 +7830,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>-5.0076923076923077</v>
+        <v>5.0076923076923077</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5591,7 +7855,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>-4.6170212765957448</v>
+        <v>4.6170212765957448</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5616,7 +7880,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>-4.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5641,7 +7905,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>-3.8922155688622753</v>
+        <v>3.8922155688622753</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5666,7 +7930,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>-3.5326086956521738</v>
+        <v>3.5326086956521738</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5691,7 +7955,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>-3.051643192488263</v>
+        <v>3.051643192488263</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5715,8 +7979,8 @@
         <v>1000</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G102" si="3">E67/D67</f>
-        <v>-2.5896414342629481</v>
+        <f t="shared" ref="G67:G130" si="3">ABS(E67/D67)</f>
+        <v>2.5896414342629481</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5741,7 +8005,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5766,7 +8030,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
-        <v>-1.3265306122448979</v>
+        <v>1.3265306122448979</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5791,7 +8055,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>-0.11</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5816,7 +8080,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>-9.2499999999999999E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5841,7 +8105,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>-7.0499999999999993E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5866,7 +8130,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>-1.2500000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5891,7 +8155,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>-2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6615,7 +8879,7 @@
         <v>249</v>
       </c>
       <c r="G103">
-        <f>E103/D103</f>
+        <f t="shared" si="3"/>
         <v>2.7194570135746607</v>
       </c>
     </row>
@@ -6640,7 +8904,7 @@
         <v>250</v>
       </c>
       <c r="G104">
-        <f t="shared" ref="G104:G143" si="4">E104/D104</f>
+        <f t="shared" si="3"/>
         <v>3.5928143712574849</v>
       </c>
     </row>
@@ -6665,7 +8929,7 @@
         <v>250</v>
       </c>
       <c r="G105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.3237410071942444</v>
       </c>
     </row>
@@ -6690,8 +8954,8 @@
         <v>1000</v>
       </c>
       <c r="G106">
-        <f t="shared" si="4"/>
-        <v>-6.5656565656565657</v>
+        <f t="shared" si="3"/>
+        <v>6.5656565656565657</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6715,8 +8979,8 @@
         <v>1000</v>
       </c>
       <c r="G107">
-        <f t="shared" si="4"/>
-        <v>-5.918181818181818</v>
+        <f t="shared" si="3"/>
+        <v>5.918181818181818</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6740,8 +9004,8 @@
         <v>1000</v>
       </c>
       <c r="G108">
-        <f t="shared" si="4"/>
-        <v>-5.4249999999999998</v>
+        <f t="shared" si="3"/>
+        <v>5.4249999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6765,8 +9029,8 @@
         <v>1000</v>
       </c>
       <c r="G109">
-        <f t="shared" si="4"/>
-        <v>-5.0387596899224807</v>
+        <f t="shared" si="3"/>
+        <v>5.0387596899224807</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6790,8 +9054,8 @@
         <v>1000</v>
       </c>
       <c r="G110">
-        <f t="shared" si="4"/>
-        <v>-4.6428571428571432</v>
+        <f t="shared" si="3"/>
+        <v>4.6428571428571432</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6815,8 +9079,8 @@
         <v>1000</v>
       </c>
       <c r="G111">
-        <f t="shared" si="4"/>
-        <v>-4.4217687074829932</v>
+        <f t="shared" si="3"/>
+        <v>4.4217687074829932</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -6840,8 +9104,8 @@
         <v>1000</v>
       </c>
       <c r="G112">
-        <f t="shared" si="4"/>
-        <v>-4.1401273885350323</v>
+        <f t="shared" si="3"/>
+        <v>4.1401273885350323</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -6865,8 +9129,8 @@
         <v>1000</v>
       </c>
       <c r="G113">
-        <f t="shared" si="4"/>
-        <v>-3.8235294117647061</v>
+        <f t="shared" si="3"/>
+        <v>3.8235294117647061</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -6890,8 +9154,8 @@
         <v>1000</v>
       </c>
       <c r="G114">
-        <f t="shared" si="4"/>
-        <v>-3.4210526315789473</v>
+        <f t="shared" si="3"/>
+        <v>3.4210526315789473</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -6915,8 +9179,8 @@
         <v>1000</v>
       </c>
       <c r="G115">
-        <f t="shared" si="4"/>
-        <v>-3.0373831775700935</v>
+        <f t="shared" si="3"/>
+        <v>3.0373831775700935</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -6940,8 +9204,8 @@
         <v>1000</v>
       </c>
       <c r="G116">
-        <f t="shared" si="4"/>
-        <v>-2.2968197879858656</v>
+        <f t="shared" si="3"/>
+        <v>2.2968197879858656</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -6965,8 +9229,8 @@
         <v>1000</v>
       </c>
       <c r="G117">
-        <f t="shared" si="4"/>
-        <v>-0.80845771144278611</v>
+        <f t="shared" si="3"/>
+        <v>0.80845771144278611</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -6990,7 +9254,7 @@
         <v>1000</v>
       </c>
       <c r="G118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7015,7 +9279,7 @@
         <v>1000</v>
       </c>
       <c r="G119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,7 +9304,7 @@
         <v>1000</v>
       </c>
       <c r="G120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7065,7 +9329,7 @@
         <v>1000</v>
       </c>
       <c r="G121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7090,7 +9354,7 @@
         <v>1000</v>
       </c>
       <c r="G122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7115,7 +9379,7 @@
         <v>1000</v>
       </c>
       <c r="G123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7140,7 +9404,7 @@
         <v>1000</v>
       </c>
       <c r="G124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,7 +9429,7 @@
         <v>1000</v>
       </c>
       <c r="G125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7190,7 +9454,7 @@
         <v>999</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7215,7 +9479,7 @@
         <v>1000</v>
       </c>
       <c r="G127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7240,7 +9504,7 @@
         <v>1000</v>
       </c>
       <c r="G128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7265,7 +9529,7 @@
         <v>1000</v>
       </c>
       <c r="G129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7290,7 +9554,7 @@
         <v>1000</v>
       </c>
       <c r="G130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7311,11 +9575,11 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="5">B131-E131</f>
+        <f t="shared" ref="F131:F194" si="4">B131-E131</f>
         <v>1000</v>
       </c>
       <c r="G131">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G131:G194" si="5">ABS(E131/D131)</f>
         <v>0</v>
       </c>
     </row>
@@ -7336,11 +9600,11 @@
         <v>0</v>
       </c>
       <c r="F132">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="G132">
         <f t="shared" si="5"/>
-        <v>256</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7361,11 +9625,11 @@
         <v>1</v>
       </c>
       <c r="F133">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G133">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -7386,11 +9650,11 @@
         <v>0</v>
       </c>
       <c r="F134">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G134">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7411,11 +9675,11 @@
         <v>0</v>
       </c>
       <c r="F135">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G135">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7436,11 +9700,11 @@
         <v>0</v>
       </c>
       <c r="F136">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G136">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7461,11 +9725,11 @@
         <v>0</v>
       </c>
       <c r="F137">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G137">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7486,11 +9750,11 @@
         <v>0</v>
       </c>
       <c r="F138">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G138">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7511,11 +9775,11 @@
         <v>1</v>
       </c>
       <c r="F139">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G139">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -7536,11 +9800,11 @@
         <v>1</v>
       </c>
       <c r="F140">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G140">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -7561,11 +9825,11 @@
         <v>1</v>
       </c>
       <c r="F141">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G141">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="4"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -7586,11 +9850,11 @@
         <v>2</v>
       </c>
       <c r="F142">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G142">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -7611,11 +9875,11 @@
         <v>7</v>
       </c>
       <c r="F143">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G143">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="4"/>
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
@@ -7636,11 +9900,11 @@
         <v>12</v>
       </c>
       <c r="F144">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G144">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G144">
-        <f>E144/D144</f>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -7661,11 +9925,11 @@
         <v>25</v>
       </c>
       <c r="F145">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G145">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G145">
-        <f t="shared" ref="G145:G208" si="6">E145/D145</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -7686,11 +9950,11 @@
         <v>33</v>
       </c>
       <c r="F146">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G146">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="6"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -7711,11 +9975,11 @@
         <v>94</v>
       </c>
       <c r="F147">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="G147">
         <f t="shared" si="5"/>
-        <v>256</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="6"/>
         <v>4.7E-2</v>
       </c>
     </row>
@@ -7736,11 +10000,11 @@
         <v>101</v>
       </c>
       <c r="F148">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G148">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="6"/>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -7761,11 +10025,11 @@
         <v>136</v>
       </c>
       <c r="F149">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G149">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="6"/>
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -7786,11 +10050,11 @@
         <v>172</v>
       </c>
       <c r="F150">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G150">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="6"/>
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
@@ -7811,11 +10075,11 @@
         <v>352</v>
       </c>
       <c r="F151">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G151">
         <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="6"/>
         <v>0.17599999999999999</v>
       </c>
     </row>
@@ -7836,11 +10100,11 @@
         <v>369</v>
       </c>
       <c r="F152">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="6"/>
         <v>0.1845</v>
       </c>
     </row>
@@ -7861,11 +10125,11 @@
         <v>378</v>
       </c>
       <c r="F153">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G153">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="6"/>
         <v>0.189</v>
       </c>
     </row>
@@ -7886,11 +10150,11 @@
         <v>397</v>
       </c>
       <c r="F154">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G154">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="6"/>
         <v>0.19850000000000001</v>
       </c>
     </row>
@@ -7911,11 +10175,11 @@
         <v>596</v>
       </c>
       <c r="F155">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G155">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="6"/>
         <v>2.0135135135135136</v>
       </c>
     </row>
@@ -7936,11 +10200,11 @@
         <v>597</v>
       </c>
       <c r="F156">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="G156">
         <f t="shared" si="5"/>
-        <v>253</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="6"/>
         <v>3.2096774193548385</v>
       </c>
     </row>
@@ -7961,11 +10225,11 @@
         <v>597</v>
       </c>
       <c r="F157">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="G157">
         <f t="shared" si="5"/>
-        <v>253</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="6"/>
         <v>3.9019607843137254</v>
       </c>
     </row>
@@ -7986,12 +10250,12 @@
         <v>-638</v>
       </c>
       <c r="F158">
+        <f t="shared" si="4"/>
+        <v>988</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="5"/>
-        <v>988</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="6"/>
-        <v>-6.9347826086956523</v>
+        <v>6.9347826086956523</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -8011,12 +10275,12 @@
         <v>-650</v>
       </c>
       <c r="F159">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G159">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="6"/>
-        <v>-2.5390625</v>
+        <v>2.5390625</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -8036,12 +10300,12 @@
         <v>-660</v>
       </c>
       <c r="F160">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G160">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="6"/>
-        <v>-0.70063694267515919</v>
+        <v>0.70063694267515919</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -8061,12 +10325,12 @@
         <v>-646</v>
       </c>
       <c r="F161">
+        <f t="shared" si="4"/>
+        <v>996</v>
+      </c>
+      <c r="G161">
         <f t="shared" si="5"/>
-        <v>996</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="6"/>
-        <v>-1.3715498938428874</v>
+        <v>1.3715498938428874</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -8086,12 +10350,12 @@
         <v>-478</v>
       </c>
       <c r="F162">
+        <f t="shared" si="4"/>
+        <v>828</v>
+      </c>
+      <c r="G162">
         <f t="shared" si="5"/>
-        <v>828</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="6"/>
-        <v>-1.6369863013698631</v>
+        <v>1.6369863013698631</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -8111,11 +10375,11 @@
         <v>0</v>
       </c>
       <c r="F163">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G163">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8136,11 +10400,11 @@
         <v>53</v>
       </c>
       <c r="F164">
+        <f t="shared" si="4"/>
+        <v>785</v>
+      </c>
+      <c r="G164">
         <f t="shared" si="5"/>
-        <v>785</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="6"/>
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
@@ -8161,12 +10425,12 @@
         <v>-282</v>
       </c>
       <c r="F165">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="G165">
         <f t="shared" si="5"/>
-        <v>770</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="6"/>
-        <v>-0.14099999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8186,12 +10450,12 @@
         <v>-126</v>
       </c>
       <c r="F166">
+        <f t="shared" si="4"/>
+        <v>788</v>
+      </c>
+      <c r="G166">
         <f t="shared" si="5"/>
-        <v>788</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="6"/>
-        <v>-6.3E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -8211,12 +10475,12 @@
         <v>-98</v>
       </c>
       <c r="F167">
+        <f t="shared" si="4"/>
+        <v>830</v>
+      </c>
+      <c r="G167">
         <f t="shared" si="5"/>
-        <v>830</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="6"/>
-        <v>-4.9000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -8236,12 +10500,12 @@
         <v>-85</v>
       </c>
       <c r="F168">
+        <f t="shared" si="4"/>
+        <v>843</v>
+      </c>
+      <c r="G168">
         <f t="shared" si="5"/>
-        <v>843</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="6"/>
-        <v>-4.2500000000000003E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -8261,12 +10525,12 @@
         <v>-23</v>
       </c>
       <c r="F169">
+        <f t="shared" si="4"/>
+        <v>910</v>
+      </c>
+      <c r="G169">
         <f t="shared" si="5"/>
-        <v>910</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="6"/>
-        <v>-1.15E-2</v>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8286,12 +10550,12 @@
         <v>-13</v>
       </c>
       <c r="F170">
+        <f t="shared" si="4"/>
+        <v>934</v>
+      </c>
+      <c r="G170">
         <f t="shared" si="5"/>
-        <v>934</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="6"/>
-        <v>-6.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -8311,12 +10575,12 @@
         <v>-11</v>
       </c>
       <c r="F171">
+        <f t="shared" si="4"/>
+        <v>941</v>
+      </c>
+      <c r="G171">
         <f t="shared" si="5"/>
-        <v>941</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="6"/>
-        <v>-5.4999999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -8336,12 +10600,12 @@
         <v>-7</v>
       </c>
       <c r="F172">
+        <f t="shared" si="4"/>
+        <v>945</v>
+      </c>
+      <c r="G172">
         <f t="shared" si="5"/>
-        <v>945</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="6"/>
-        <v>-3.5000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -8361,12 +10625,12 @@
         <v>-6</v>
       </c>
       <c r="F173">
+        <f t="shared" si="4"/>
+        <v>952</v>
+      </c>
+      <c r="G173">
         <f t="shared" si="5"/>
-        <v>952</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="6"/>
-        <v>-3.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -8386,12 +10650,12 @@
         <v>-4</v>
       </c>
       <c r="F174">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="G174">
         <f t="shared" si="5"/>
-        <v>960</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="6"/>
-        <v>-2E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -8411,12 +10675,12 @@
         <v>-5</v>
       </c>
       <c r="F175">
+        <f t="shared" si="4"/>
+        <v>967</v>
+      </c>
+      <c r="G175">
         <f t="shared" si="5"/>
-        <v>967</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="6"/>
-        <v>-2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -8436,12 +10700,12 @@
         <v>-2</v>
       </c>
       <c r="F176">
+        <f t="shared" si="4"/>
+        <v>970</v>
+      </c>
+      <c r="G176">
         <f t="shared" si="5"/>
-        <v>970</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="6"/>
-        <v>-1E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -8461,12 +10725,12 @@
         <v>-3</v>
       </c>
       <c r="F177">
+        <f t="shared" si="4"/>
+        <v>974</v>
+      </c>
+      <c r="G177">
         <f t="shared" si="5"/>
-        <v>974</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="6"/>
-        <v>-1.5E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -8486,11 +10750,11 @@
         <v>0</v>
       </c>
       <c r="F178">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="G178">
         <f t="shared" si="5"/>
-        <v>975</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8511,12 +10775,12 @@
         <v>-1</v>
       </c>
       <c r="F179">
+        <f t="shared" si="4"/>
+        <v>978</v>
+      </c>
+      <c r="G179">
         <f t="shared" si="5"/>
-        <v>978</v>
-      </c>
-      <c r="G179">
-        <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -8536,11 +10800,11 @@
         <v>0</v>
       </c>
       <c r="F180">
+        <f t="shared" si="4"/>
+        <v>981</v>
+      </c>
+      <c r="G180">
         <f t="shared" si="5"/>
-        <v>981</v>
-      </c>
-      <c r="G180">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8561,12 +10825,12 @@
         <v>-1</v>
       </c>
       <c r="F181">
+        <f t="shared" si="4"/>
+        <v>984</v>
+      </c>
+      <c r="G181">
         <f t="shared" si="5"/>
-        <v>984</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8586,12 +10850,12 @@
         <v>-1</v>
       </c>
       <c r="F182">
+        <f t="shared" si="4"/>
+        <v>986</v>
+      </c>
+      <c r="G182">
         <f t="shared" si="5"/>
-        <v>986</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -8611,12 +10875,12 @@
         <v>-1</v>
       </c>
       <c r="F183">
+        <f t="shared" si="4"/>
+        <v>988</v>
+      </c>
+      <c r="G183">
         <f t="shared" si="5"/>
-        <v>988</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -8636,12 +10900,12 @@
         <v>-1</v>
       </c>
       <c r="F184">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="G184">
         <f t="shared" si="5"/>
-        <v>253</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -8661,11 +10925,11 @@
         <v>0</v>
       </c>
       <c r="F185">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G185">
         <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8686,11 +10950,11 @@
         <v>0</v>
       </c>
       <c r="F186">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G186">
         <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="G186">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8711,11 +10975,11 @@
         <v>0</v>
       </c>
       <c r="F187">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G187">
         <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8736,11 +11000,11 @@
         <v>1</v>
       </c>
       <c r="F188">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G188">
         <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -8761,11 +11025,11 @@
         <v>0</v>
       </c>
       <c r="F189">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G189">
         <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,11 +11050,11 @@
         <v>1</v>
       </c>
       <c r="F190">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G190">
         <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="G190">
-        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -8811,11 +11075,11 @@
         <v>0</v>
       </c>
       <c r="F191">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G191">
         <f t="shared" si="5"/>
-        <v>252</v>
-      </c>
-      <c r="G191">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8836,11 +11100,11 @@
         <v>1</v>
       </c>
       <c r="F192">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G192">
         <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="G192">
-        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -8861,11 +11125,11 @@
         <v>1</v>
       </c>
       <c r="F193">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G193">
         <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -8886,11 +11150,11 @@
         <v>1</v>
       </c>
       <c r="F194">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G194">
         <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -8911,11 +11175,11 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F209" si="7">B195-E195</f>
+        <f t="shared" ref="F195:F209" si="6">B195-E195</f>
         <v>251</v>
       </c>
       <c r="G195">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G195:G209" si="7">ABS(E195/D195)</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -8936,11 +11200,11 @@
         <v>2</v>
       </c>
       <c r="F196">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G196">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -8961,11 +11225,11 @@
         <v>2</v>
       </c>
       <c r="F197">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G197">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -8986,11 +11250,11 @@
         <v>2</v>
       </c>
       <c r="F198">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G198">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -9011,11 +11275,11 @@
         <v>2</v>
       </c>
       <c r="F199">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G199">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -9036,11 +11300,11 @@
         <v>2</v>
       </c>
       <c r="F200">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G200">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -9061,11 +11325,11 @@
         <v>3</v>
       </c>
       <c r="F201">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G201">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="6"/>
         <v>1.5E-3</v>
       </c>
     </row>
@@ -9086,11 +11350,11 @@
         <v>3</v>
       </c>
       <c r="F202">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G202">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="6"/>
         <v>1.5E-3</v>
       </c>
     </row>
@@ -9111,11 +11375,11 @@
         <v>4</v>
       </c>
       <c r="F203">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="G203">
         <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
     </row>
@@ -9136,11 +11400,11 @@
         <v>5</v>
       </c>
       <c r="F204">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G204">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="6"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -9161,11 +11425,11 @@
         <v>8</v>
       </c>
       <c r="F205">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G205">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="6"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -9186,11 +11450,11 @@
         <v>28</v>
       </c>
       <c r="F206">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G206">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="6"/>
         <v>1.4E-2</v>
       </c>
     </row>
@@ -9211,11 +11475,11 @@
         <v>69</v>
       </c>
       <c r="F207">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G207">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="6"/>
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -9236,11 +11500,11 @@
         <v>199</v>
       </c>
       <c r="F208">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G208">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="6"/>
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
@@ -9261,11 +11525,11 @@
         <v>235</v>
       </c>
       <c r="F209">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G209">
         <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G209">
-        <f t="shared" ref="G209" si="8">E209/D209</f>
         <v>0.11749999999999999</v>
       </c>
     </row>

--- a/speed.xlsx
+++ b/speed.xlsx
@@ -195,7 +195,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0676171333826439"/>
-          <c:y val="0.13518191430448"/>
+          <c:y val="0.127107148329636"/>
           <c:w val="0.898958475089628"/>
           <c:h val="0.782246927615127"/>
         </c:manualLayout>
@@ -204,378 +204,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>-255.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-245.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-235.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-225.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-215.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-205.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-195.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-185.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-175.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-165.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-155.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-135.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-125.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-115.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-105.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-95.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-85.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-75.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-65.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-45.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-35.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-25.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-15.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>245.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>4.936363636363636</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.864285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.03921568627451</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.893048128342246</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.37984496124031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.865853658536585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.532994923857868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.126865671641791</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.579457364341085</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0835</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0335</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0295</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0255</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0075</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0065</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0045</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0015</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0085</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0144927536231884</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0175</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0215</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0335</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.205</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$C$4</c:f>
@@ -945,7 +575,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$D$4</c:f>
@@ -1307,376 +937,6 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.901960784313725</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$5:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>-255.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-245.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-235.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-225.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-215.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-205.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-195.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-185.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-175.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-165.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-155.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-145.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-135.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-125.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-115.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-105.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-95.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-85.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-75.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-65.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-45.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-35.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-25.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-15.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>245.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$5:$E$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>6.934782608695652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5390625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.700636942675159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.371549893842887</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.636986301369863</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0265</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.063</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0425</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0115</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0065</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0055</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0025</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0015</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0015</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0025</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0345</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,7 +4402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F57"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6305,7 +5565,7 @@
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="39" zoomScalePageLayoutView="39" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
